--- a/excel/V2/inscriptions_premieres_valides_20022014.xlsx
+++ b/excel/V2/inscriptions_premieres_valides_20022014.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">TODAY()</f>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E50" ca="1" si="1">TODAY()</f>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>33</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>33</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>25</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>33</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>33</v>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>29</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>69</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>33</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>77</v>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>69</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>33</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>83</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>33</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>25</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>19</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>33</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>69</v>
